--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_f4jxo.png</t>
+          <t>stimuli/img_cogrz.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>82.91666666666667</v>
+        <v>60.5</v>
       </c>
       <c r="N2">
-        <v>65.52777777777777</v>
+        <v>39.71428571428572</v>
       </c>
       <c r="O2">
-        <v>74.22222222222223</v>
+        <v>50.10714285714286</v>
       </c>
       <c r="P2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -671,38 +671,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_a9acb.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>33.44736842105263</v>
+        <v>77.11428571428571</v>
       </c>
       <c r="N4">
-        <v>11.39473684210526</v>
+        <v>58.42857142857143</v>
       </c>
       <c r="O4">
-        <v>22.42105263157895</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="P4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -748,38 +748,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_fnu4h.png</t>
+          <t>stimuli/img_rvssl.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>85.87179487179488</v>
+        <v>74.25</v>
       </c>
       <c r="N5">
-        <v>70.71794871794872</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O5">
-        <v>78.2948717948718</v>
+        <v>64.29166666666667</v>
       </c>
       <c r="P5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -825,38 +825,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_1vq1v.png</t>
+          <t>stimuli/img_oou46.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>69.42857142857143</v>
+        <v>75.70270270270271</v>
       </c>
       <c r="N6">
-        <v>46.59523809523809</v>
+        <v>54.86486486486486</v>
       </c>
       <c r="O6">
-        <v>58.01190476190476</v>
+        <v>65.28378378378379</v>
       </c>
       <c r="P6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -902,38 +902,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_cogrz.png</t>
+          <t>stimuli/img_uxxo0.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>60.5</v>
+        <v>71.74418604651163</v>
       </c>
       <c r="N7">
-        <v>39.71428571428572</v>
+        <v>48.44186046511628</v>
       </c>
       <c r="O7">
-        <v>50.10714285714286</v>
+        <v>60.09302325581395</v>
       </c>
       <c r="P7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1143,38 +1143,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_cmyvx.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>77.11428571428571</v>
+        <v>64.25</v>
       </c>
       <c r="N10">
-        <v>58.42857142857143</v>
+        <v>40.09375</v>
       </c>
       <c r="O10">
-        <v>67.77142857142857</v>
+        <v>52.171875</v>
       </c>
       <c r="P10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1220,38 +1220,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_fnu4h.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>12.88888888888889</v>
+        <v>85.87179487179488</v>
       </c>
       <c r="N11">
-        <v>9.222222222222221</v>
+        <v>70.71794871794872</v>
       </c>
       <c r="O11">
-        <v>11.05555555555556</v>
+        <v>78.2948717948718</v>
       </c>
       <c r="P11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1297,38 +1297,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_cmyvx.png</t>
+          <t>stimuli/img_2js6m.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>64.25</v>
+        <v>40.02777777777778</v>
       </c>
       <c r="N12">
-        <v>40.09375</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="O12">
-        <v>52.171875</v>
+        <v>30.45833333333334</v>
       </c>
       <c r="P12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1350,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,38 +1498,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_jp28n.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>40.02777777777778</v>
+        <v>65.02564102564102</v>
       </c>
       <c r="N15">
-        <v>20.88888888888889</v>
+        <v>44.97435897435897</v>
       </c>
       <c r="O15">
-        <v>30.45833333333334</v>
+        <v>55</v>
       </c>
       <c r="P15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1551,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,38 +1575,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_wyctg.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>88.18918918918919</v>
+        <v>33.44736842105263</v>
       </c>
       <c r="N16">
-        <v>74.05405405405405</v>
+        <v>11.39473684210526</v>
       </c>
       <c r="O16">
-        <v>81.12162162162161</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="P16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1628,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1734,38 +1734,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_3h4c9.png</t>
+          <t>stimuli/img_1vq1v.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>85.47619047619048</v>
+        <v>69.42857142857143</v>
       </c>
       <c r="N18">
-        <v>67.26190476190476</v>
+        <v>46.59523809523809</v>
       </c>
       <c r="O18">
-        <v>76.36904761904762</v>
+        <v>58.01190476190476</v>
       </c>
       <c r="P18">
         <v>42</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1787,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2221,38 +2221,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_juob3.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>92</v>
+        <v>79.92105263157895</v>
       </c>
       <c r="N24">
-        <v>78.16216216216216</v>
+        <v>59.78947368421053</v>
       </c>
       <c r="O24">
-        <v>85.08108108108108</v>
+        <v>69.85526315789474</v>
       </c>
       <c r="P24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2274,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2380,38 +2380,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_le8uf.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>71.74418604651163</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="N26">
-        <v>48.44186046511628</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="O26">
-        <v>60.09302325581395</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="P26">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2457,38 +2457,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_e26ut.png</t>
+          <t>stimuli/img_72fmj.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>81.07692307692308</v>
+        <v>53.87179487179487</v>
       </c>
       <c r="N27">
-        <v>61.28205128205128</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O27">
-        <v>71.17948717948718</v>
+        <v>44.94871794871795</v>
       </c>
       <c r="P27">
         <v>39</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2510,7 +2510,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2616,38 +2616,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_jp28n.png</t>
+          <t>stimuli/img_x0u5z.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>65.02564102564102</v>
+        <v>92</v>
       </c>
       <c r="N29">
-        <v>44.97435897435897</v>
+        <v>78.16216216216216</v>
       </c>
       <c r="O29">
-        <v>55</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="P29">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2669,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2857,38 +2857,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_5il0t.png</t>
+          <t>stimuli/img_3h4c9.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>48.09523809523809</v>
+        <v>85.47619047619048</v>
       </c>
       <c r="N32">
-        <v>30.90476190476191</v>
+        <v>67.26190476190476</v>
       </c>
       <c r="O32">
-        <v>39.5</v>
+        <v>76.36904761904762</v>
       </c>
       <c r="P32">
         <v>42</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2910,7 +2910,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3098,38 +3098,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_juob3.png</t>
+          <t>stimuli/img_5il0t.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>79.92105263157895</v>
+        <v>48.09523809523809</v>
       </c>
       <c r="N35">
-        <v>59.78947368421053</v>
+        <v>30.90476190476191</v>
       </c>
       <c r="O35">
-        <v>69.85526315789474</v>
+        <v>39.5</v>
       </c>
       <c r="P35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3421,38 +3421,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_f4jxo.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>75.70270270270271</v>
+        <v>82.91666666666667</v>
       </c>
       <c r="N39">
-        <v>54.86486486486486</v>
+        <v>65.52777777777777</v>
       </c>
       <c r="O39">
-        <v>65.28378378378379</v>
+        <v>74.22222222222223</v>
       </c>
       <c r="P39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V39">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3498,38 +3498,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_e26ut.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>74.25</v>
+        <v>81.07692307692308</v>
       </c>
       <c r="N40">
-        <v>54.33333333333334</v>
+        <v>61.28205128205128</v>
       </c>
       <c r="O40">
-        <v>64.29166666666667</v>
+        <v>71.17948717948718</v>
       </c>
       <c r="P40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3551,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3575,38 +3575,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_72fmj.png</t>
+          <t>stimuli/img_t2ioc.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>53.87179487179487</v>
+        <v>88.18918918918919</v>
       </c>
       <c r="N41">
-        <v>36.02564102564103</v>
+        <v>74.05405405405405</v>
       </c>
       <c r="O41">
-        <v>44.94871794871795</v>
+        <v>81.12162162162161</v>
       </c>
       <c r="P41">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3628,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_1.xlsx
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/catch_01_supermarket.jpg</t>
+          <t>stimuli/catch_02.jpg</t>
         </is>
       </c>
     </row>
